--- a/test_generator/sample_test_bank.xlsx
+++ b/test_generator/sample_test_bank.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="93">
   <si>
     <t>Chapter</t>
   </si>
@@ -280,13 +280,201 @@
   </si>
   <si>
     <t>Cells</t>
+  </si>
+  <si>
+    <r>
+      <t>What is true about H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0 is always a solid</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O is always a liquid</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0 is always a gas</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>You can have H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0 as only solid or liquid</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0 is always written like H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+1</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,6 +485,22 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -622,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,7 +867,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -673,23 +877,23 @@
       <c r="C2" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>10</v>
+      <c r="D2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -702,23 +906,23 @@
       <c r="C3" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>16</v>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -731,23 +935,23 @@
       <c r="C4" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>23</v>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -760,23 +964,23 @@
       <c r="C5" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>24</v>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -789,23 +993,23 @@
       <c r="C6" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>30</v>
+      <c r="D6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -819,22 +1023,22 @@
         <v>84</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -847,23 +1051,23 @@
       <c r="C8" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>41</v>
+      <c r="D8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -877,22 +1081,22 @@
         <v>84</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -905,23 +1109,23 @@
       <c r="C10" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="D10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>46</v>
+      <c r="I10" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -935,7 +1139,7 @@
         <v>84</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>45</v>
@@ -950,7 +1154,7 @@
         <v>35</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -963,23 +1167,23 @@
       <c r="C12" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>51</v>
+      <c r="D12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -993,22 +1197,22 @@
         <v>84</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>53</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1021,23 +1225,23 @@
       <c r="C14" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>35</v>
+      <c r="D14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1051,7 +1255,7 @@
         <v>84</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>45</v>
@@ -1060,10 +1264,10 @@
         <v>33</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>35</v>
@@ -1077,25 +1281,25 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>62</v>
+        <v>84</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1109,22 +1313,22 @@
         <v>85</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E17" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>65</v>
-      </c>
       <c r="I17" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1132,28 +1336,28 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>69</v>
+      <c r="D18" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1167,22 +1371,22 @@
         <v>85</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1195,23 +1399,23 @@
       <c r="C20" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="H20" s="13" t="s">
+      <c r="D20" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="I20" s="13" t="s">
-        <v>34</v>
+      <c r="F20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1225,22 +1429,22 @@
         <v>85</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="H21" s="13" t="s">
         <v>45</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1248,28 +1452,28 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>78</v>
+      <c r="D22" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1286,19 +1490,19 @@
         <v>75</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1309,25 +1513,25 @@
         <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1341,22 +1545,22 @@
         <v>86</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="H25" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="14" t="s">
         <v>45</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1364,27 +1568,56 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
         <v>86</v>
       </c>
       <c r="D26" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E27" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F27" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G27" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H26" s="14" t="s">
+      <c r="H27" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I26" s="14" t="s">
+      <c r="I27" s="14" t="s">
         <v>33</v>
       </c>
     </row>
